--- a/Jiean/性能-监视脚本/服务器监测采集.xlsx
+++ b/Jiean/性能-监视脚本/服务器监测采集.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
-    <sheet name="内存" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="window" sheetId="2" r:id="rId1"/>
+    <sheet name="内存" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,105 @@
   </si>
   <si>
     <t>Target Pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SqlServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专享内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为硬件保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Committed Bytes</t>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面文件数量</t>
+  </si>
+  <si>
+    <t>Commit Limit</t>
+  </si>
+  <si>
+    <t>KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Available Mbytes</t>
+  </si>
+  <si>
+    <t>pages/sec</t>
+  </si>
+  <si>
+    <t>Cache Bytes</t>
+  </si>
+  <si>
+    <t>Nonpaged bytes</t>
+  </si>
+  <si>
+    <t>paged resident Bytes</t>
+  </si>
+  <si>
+    <t>进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>processor Time</t>
+  </si>
+  <si>
+    <t>Page Faults/sec</t>
+  </si>
+  <si>
+    <t>Handle Count</t>
+  </si>
+  <si>
+    <t>Thread Count</t>
+  </si>
+  <si>
+    <t>Pool Paged Bytes</t>
+  </si>
+  <si>
+    <t>Pool Nonpaged Bytes</t>
+  </si>
+  <si>
+    <t>Working Set</t>
+  </si>
+  <si>
+    <t>Virtual Bytes</t>
+  </si>
+  <si>
+    <t>Private Bytes</t>
+  </si>
+  <si>
+    <t>1.8989+010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +251,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,13 +288,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -491,10 +599,310 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <f ca="1">NOW()</f>
+        <v>41604.357048379628</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>41604.293323379628</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3925499904</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8161173504</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1085000</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="5">
+        <v>194510848</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="5">
+        <v>116838400</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="5">
+        <v>255578112</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="5">
+        <v>405.17399999999998</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="5">
+        <v>13424.761</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="5">
+        <v>35999000</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1622</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="5">
+        <v>18525792</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3291768</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2427363328</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2666536960</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -507,7 +915,7 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41602.573701967594</v>
+        <v>41604.357048379628</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -681,19 +1089,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Jiean/性能-监视脚本/服务器监测采集.xlsx
+++ b/Jiean/性能-监视脚本/服务器监测采集.xlsx
@@ -4,19 +4,92 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="window" sheetId="2" r:id="rId1"/>
     <sheet name="内存" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="视图" sheetId="3" r:id="rId3"/>
+    <sheet name="系统表" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">（1）Reserved 和 Commit
+　　即 sum(virtual_memory_reserved_kb) 和 sum(virtual_memory_committed_kb) 。
+（2）Stolen
+　　等于 sum(single_pages_kb) + sum(multi_pages_kb)
+（3）Buffer Pool(Single Page）
+　　等于 sum(virtual_memory_committed_kb) + sum(single_pages_kb)
+（4）Multi-Page
+　　即 sum(multi_pages_kb)
+局限性
+　　通过这个DMV可以看到所有Buffer Pool(或者称为Single Page）的使用，以及Multi-Page里被SQL Server代码用掉的内存。运行在Multi-Page里面的第三方代码所申请的内存是不能被这个视图跟踪的
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>通常缓存的执行计划的对象有：
+Proc（存储过程）、
+Prepared（预定义语句）、
+Adhoc（动态查询）、
+ReplProc（复制筛选过程）、
+Trigger、View、Default（默认值）、
+UsrTab（用户表）、
+SysTab（系统表）、
+Check（Check约束）、
+Rule（规则）等</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">如果执行计划是参数型的，则返回的行数跟执行计划所传入的值有关
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +282,87 @@
   </si>
   <si>
     <t>1.8989+010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dm_os</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory_Clerks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回SQL Server实例中当前处于活动状态的全部内存Clerk的集合。跟踪这个DMV，可以看到内存是如何被SQL Server消耗。</t>
+  </si>
+  <si>
+    <t>Buff_descriptors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看SQL Server缓冲池中当前所有数据页的信息</t>
+  </si>
+  <si>
+    <t>sys.allocation_units</t>
+  </si>
+  <si>
+    <t>数据库中的每个分配单元都在表中占一行</t>
+  </si>
+  <si>
+    <t>数据库中所有表和索引的每个分区在表中各对应一行。即使 SQL Server 2005 中的所有表和索引并未显式分区，也认为它们至少包含一个分区。</t>
+  </si>
+  <si>
+    <t>sys.partitions</t>
+  </si>
+  <si>
+    <t>dm_exec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cached_plans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看执行计划都缓存了哪些内容,各种对象占用了多少内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query_stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回 SQL Server 2012 中缓存查询计划的聚合性能统计信息。缓存计划中的每个查询语句在该视图中对应一行，并且行的生存期与计划本身相关联。在从缓存删除计划时，也将从该视图中删除对应行</t>
+  </si>
+  <si>
+    <t>sql_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回由指定的 sql_handle 标识的 SQL 批处理的文本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cursors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml_handles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query_memory_grants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connectios</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +370,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +389,37 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -288,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -298,6 +483,20 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -601,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -616,7 +815,7 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41604.357048379628</v>
+        <v>41605.319595138892</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -915,7 +1114,7 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41604.357048379628</v>
+        <v>41605.31959525463</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1093,13 +1292,192 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B11" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B13" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B14" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="C9:L9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="48.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Jiean/性能-监视脚本/服务器监测采集.xlsx
+++ b/Jiean/性能-监视脚本/服务器监测采集.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="118">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,6 +363,178 @@
   </si>
   <si>
     <t>connectios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专享内存（任务管理器）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可共享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>available Mbytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Page Faults/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pages/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool Nonaged Bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pool Paged resident bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%processor time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handle count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page faults/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool nonpaged bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool paged bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thread count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>working set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>working set -private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>working set peak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connection memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>granted workspace memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memory grants pending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optimizer memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql cache memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target server memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total server memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffer cache hit ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint pages/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>database pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lazy writes/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page file expectancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page reads /sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page write/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">target pages </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.sysdatabases</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +598,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,6 +614,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -487,16 +665,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -798,24 +978,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41605.319595138892</v>
+        <v>41606.307327314818</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1089,6 +1269,258 @@
         <v>2666536960</v>
       </c>
       <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>41606.236236226854</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29">
+        <v>54952268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30">
+        <v>66392</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31">
+        <v>55018428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32">
+        <v>55533488</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35">
+        <v>65604000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37">
+        <v>3634000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38">
+        <v>18399</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <v>75803660808</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C41" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41">
+        <v>93006123008</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C42" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42">
+        <v>22031</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C43" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C44" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C45" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45">
+        <v>330</v>
+      </c>
+      <c r="E45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C46" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46">
+        <v>296</v>
+      </c>
+      <c r="E46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C47" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47">
+        <v>546</v>
+      </c>
+      <c r="E47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52">
+        <v>1380416</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53">
+        <v>1233792</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55">
+        <v>130240</v>
+      </c>
+      <c r="E55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56">
+        <v>56338</v>
+      </c>
+      <c r="E56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57">
+        <v>56270</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58">
+        <v>56464</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E60" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1098,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1114,7 +1546,7 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41605.31959525463</v>
+        <v>41606.307327314818</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1276,12 +1708,143 @@
         <v>2887951</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17">
         <v>163714696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>41606.236236226854</v>
+      </c>
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21">
+        <v>58824</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23">
+        <v>59272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24">
+        <v>217432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25">
+        <v>71496312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26">
+        <v>54805120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30">
+        <v>5005986</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32">
+        <v>2521990</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35">
+        <v>163741696</v>
       </c>
     </row>
   </sheetData>
@@ -1296,7 +1859,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1315,121 +1878,121 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="11"/>
+      <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1450,10 +2013,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1477,6 +2040,11 @@
         <v>61</v>
       </c>
     </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Jiean/性能-监视脚本/服务器监测采集.xlsx
+++ b/Jiean/性能-监视脚本/服务器监测采集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="window" sheetId="2" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="117">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,16 +297,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回SQL Server实例中当前处于活动状态的全部内存Clerk的集合。跟踪这个DMV，可以看到内存是如何被SQL Server消耗。</t>
-  </si>
-  <si>
     <t>Buff_descriptors</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看SQL Server缓冲池中当前所有数据页的信息</t>
-  </si>
-  <si>
     <t>sys.allocation_units</t>
   </si>
   <si>
@@ -323,218 +317,222 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>查看执行计划都缓存了哪些内容,各种对象占用了多少内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query_stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回 SQL Server 2012 中缓存查询计划的聚合性能统计信息。缓存计划中的每个查询语句在该视图中对应一行，并且行的生存期与计划本身相关联。在从缓存删除计划时，也将从该视图中删除对应行</t>
+  </si>
+  <si>
+    <t>sql_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回由指定的 sql_handle 标识的 SQL 批处理的文本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cursors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml_handles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query_memory_grants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connectios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专享内存（任务管理器）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可共享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>available Mbytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Page Faults/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pages/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool Nonaged Bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pool Paged resident bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%processor time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handle count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page faults/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool nonpaged bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool paged bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thread count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>working set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>working set -private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>working set peak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connection memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>granted workspace memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memory grants pending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optimizer memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql cache memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target server memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total server memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffer cache hit ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint pages/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>database pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lazy writes/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page file expectancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page reads /sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page write/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">target pages </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.sysdatabases</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回SQL Server实例中当前活动状态的全部内存Clerk的集合。跟踪这个DMV，可以看到内存是如何被SQL Server消耗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看SQL Server缓冲池中当前所有数据页的信息,观察数据页的分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>cached_plans</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看执行计划都缓存了哪些内容,各种对象占用了多少内存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>query_stats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回 SQL Server 2012 中缓存查询计划的聚合性能统计信息。缓存计划中的每个查询语句在该视图中对应一行，并且行的生存期与计划本身相关联。在从缓存删除计划时，也将从该视图中删除对应行</t>
-  </si>
-  <si>
-    <t>sql_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回由指定的 sql_handle 标识的 SQL 批处理的文本。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>requests</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cursors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xml_handles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>query_memory_grants</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>connectios</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQLServer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专享内存（任务管理器）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可共享</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Windows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commit limit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>available Mbytes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Page Faults/sec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pages/sec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cache bytes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pool Nonaged Bytes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pool Paged resident bytes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql进程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%processor time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>handle count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page faults/sec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pool nonpaged bytes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pool paged bytes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thread count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>virtual bytes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>working set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>working set -private</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>working set peak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>connection memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>granted workspace memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lock memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memory grants pending</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>optimizer memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql cache memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target server memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total server memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffer cache hit ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkpoint pages/sec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>database pages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lazy writes/sec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page file expectancy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page reads /sec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page write/sec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">target pages </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys.sysdatabases</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,14 +667,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -978,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -995,7 +993,7 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41606.307327314818</v>
+        <v>41606.562895254632</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1270,16 +1268,16 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>41606.236236226854</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D29">
         <v>54952268</v>
@@ -1287,7 +1285,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D30">
         <v>66392</v>
@@ -1295,7 +1293,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D31">
         <v>55018428</v>
@@ -1303,7 +1301,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D32">
         <v>55533488</v>
@@ -1311,7 +1309,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>27</v>
@@ -1364,76 +1362,76 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C41" s="13" t="s">
-        <v>81</v>
+      <c r="C41" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="D41">
         <v>93006123008</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C42" s="13" t="s">
-        <v>82</v>
+      <c r="C42" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="D42">
         <v>22031</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C43" s="13" t="s">
-        <v>83</v>
+      <c r="C43" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="D43">
         <v>151</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C44" s="13" t="s">
-        <v>84</v>
+      <c r="C44" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C45" s="13" t="s">
-        <v>85</v>
+      <c r="C45" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="D45">
         <v>330</v>
       </c>
       <c r="E45" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C46" s="13" t="s">
-        <v>87</v>
+      <c r="C46" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="D46">
         <v>296</v>
       </c>
       <c r="E46" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C47" s="13" t="s">
-        <v>88</v>
+      <c r="C47" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="D47">
         <v>546</v>
       </c>
       <c r="E47" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D49">
         <v>11</v>
@@ -1441,7 +1439,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C50" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D50">
         <v>1912</v>
@@ -1449,7 +1447,7 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C51" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1457,7 +1455,7 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D52">
         <v>1380416</v>
@@ -1465,7 +1463,7 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D53">
         <v>1233792</v>
@@ -1473,7 +1471,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D54">
         <v>213</v>
@@ -1481,29 +1479,29 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D55">
         <v>130240</v>
       </c>
       <c r="E55" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D56">
         <v>56338</v>
       </c>
       <c r="E56" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C57" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D57">
         <v>56270</v>
@@ -1511,15 +1509,10 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C58" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D58">
         <v>56464</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E60" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1532,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1546,7 +1539,7 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41606.307327314818</v>
+        <v>41606.562895254632</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1721,7 +1714,7 @@
         <v>41606.236236226854</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C19">
         <v>2440</v>
@@ -1729,7 +1722,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1737,7 +1730,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C21">
         <v>58824</v>
@@ -1745,7 +1738,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1753,7 +1746,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C23">
         <v>59272</v>
@@ -1761,7 +1754,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C24">
         <v>217432</v>
@@ -1769,7 +1762,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C25">
         <v>71496312</v>
@@ -1777,7 +1770,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C26">
         <v>54805120</v>
@@ -1785,7 +1778,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C28">
         <v>100</v>
@@ -1793,7 +1786,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1801,7 +1794,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C30">
         <v>5005986</v>
@@ -1809,7 +1802,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1817,7 +1810,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C32">
         <v>2521990</v>
@@ -1825,7 +1818,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1833,7 +1826,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1841,7 +1834,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C35">
         <v>163741696</v>
@@ -1858,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1881,119 +1874,119 @@
       <c r="B3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="C3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+        <v>116</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+        <v>63</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2015,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2026,23 +2019,23 @@
   <sheetData>
     <row r="2" spans="2:3" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B3" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Jiean/性能-监视脚本/服务器监测采集.xlsx
+++ b/Jiean/性能-监视脚本/服务器监测采集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="window" sheetId="2" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="137">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,6 +534,72 @@
   <si>
     <t>cached_plans</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.sysprocesses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.indexes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个表格对象（例如表，视图或表值函数）的索引或堆都包含一行；如果表中没有聚集索引，则这个表为堆结构，埝会在sys.indexs中单独存在一条记录。</t>
+  </si>
+  <si>
+    <t>sys.index_columns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引的每个列都对应此目录视图中的一行记录</t>
+  </si>
+  <si>
+    <t>sys.columns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.objects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.tables</t>
+  </si>
+  <si>
+    <t>sys.schemas</t>
+  </si>
+  <si>
+    <t>dm_db</t>
+  </si>
+  <si>
+    <t>index_usage_stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.sql_dependencies</t>
+  </si>
+  <si>
+    <t>sessions</t>
+  </si>
+  <si>
+    <t>partition_stats</t>
+  </si>
+  <si>
+    <t>sys.internal_tables</t>
+  </si>
+  <si>
+    <t>sys.database_files</t>
+  </si>
+  <si>
+    <t>sys.foreign_keys</t>
+  </si>
+  <si>
+    <t>sys.foreign_key_columns</t>
+  </si>
+  <si>
+    <t>sys.types</t>
+  </si>
+  <si>
+    <t>sys.views</t>
   </si>
 </sst>
 </file>
@@ -978,7 +1044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
@@ -993,7 +1059,7 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41606.562895254632</v>
+        <v>41607.351241087963</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1525,7 +1591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -1539,7 +1605,7 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41606.562895254632</v>
+        <v>41607.351241087963</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1849,10 +1915,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1987,6 +2053,29 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" s="9" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B15" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B16" s="9"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2006,10 +2095,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2038,6 +2127,82 @@
         <v>113</v>
       </c>
     </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Jiean/性能-监视脚本/服务器监测采集.xlsx
+++ b/Jiean/性能-监视脚本/服务器监测采集.xlsx
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="138">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -520,86 +520,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>返回SQL Server实例中当前活动状态的全部内存Clerk的集合。跟踪这个DMV，可以看到内存是如何被SQL Server消耗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看SQL Server缓冲池中当前所有数据页的信息,观察数据页的分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cached_plans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.sysprocesses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.indexes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个表格对象（例如表，视图或表值函数）的索引或堆都包含一行；如果表中没有聚集索引，则这个表为堆结构，埝会在sys.indexs中单独存在一条记录。</t>
+  </si>
+  <si>
+    <t>sys.index_columns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引的每个列都对应此目录视图中的一行记录</t>
+  </si>
+  <si>
+    <t>sys.columns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.objects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.tables</t>
+  </si>
+  <si>
+    <t>sys.schemas</t>
+  </si>
+  <si>
+    <t>dm_db</t>
+  </si>
+  <si>
+    <t>index_usage_stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.sql_dependencies</t>
+  </si>
+  <si>
+    <t>sessions</t>
+  </si>
+  <si>
+    <t>partition_stats</t>
+  </si>
+  <si>
+    <t>sys.internal_tables</t>
+  </si>
+  <si>
+    <t>sys.database_files</t>
+  </si>
+  <si>
+    <t>sys.foreign_keys</t>
+  </si>
+  <si>
+    <t>sys.foreign_key_columns</t>
+  </si>
+  <si>
+    <t>sys.types</t>
+  </si>
+  <si>
+    <t>sys.views</t>
+  </si>
+  <si>
     <t>sys.sysdatabases</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回SQL Server实例中当前活动状态的全部内存Clerk的集合。跟踪这个DMV，可以看到内存是如何被SQL Server消耗。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看SQL Server缓冲池中当前所有数据页的信息,观察数据页的分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cached_plans</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys.sysprocesses</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys.indexes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个表格对象（例如表，视图或表值函数）的索引或堆都包含一行；如果表中没有聚集索引，则这个表为堆结构，埝会在sys.indexs中单独存在一条记录。</t>
-  </si>
-  <si>
-    <t>sys.index_columns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引的每个列都对应此目录视图中的一行记录</t>
-  </si>
-  <si>
-    <t>sys.columns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys.objects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys.tables</t>
-  </si>
-  <si>
-    <t>sys.schemas</t>
-  </si>
-  <si>
-    <t>dm_db</t>
-  </si>
-  <si>
-    <t>index_usage_stats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys.sql_dependencies</t>
-  </si>
-  <si>
-    <t>sessions</t>
-  </si>
-  <si>
-    <t>partition_stats</t>
-  </si>
-  <si>
-    <t>sys.internal_tables</t>
-  </si>
-  <si>
-    <t>sys.database_files</t>
-  </si>
-  <si>
-    <t>sys.foreign_keys</t>
-  </si>
-  <si>
-    <t>sys.foreign_key_columns</t>
-  </si>
-  <si>
-    <t>sys.types</t>
-  </si>
-  <si>
-    <t>sys.views</t>
+    <t>sys.databases</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1059,7 +1063,7 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41607.351241087963</v>
+        <v>41607.957367824078</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1605,7 +1609,7 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41607.351241087963</v>
+        <v>41607.957367824078</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1941,7 +1945,7 @@
         <v>55</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -1958,7 +1962,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1981,7 +1985,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>62</v>
@@ -2057,7 +2061,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -2065,17 +2069,17 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2095,10 +2099,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C18"/>
+  <dimension ref="B2:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2124,83 +2128,88 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
         <v>118</v>
-      </c>
-      <c r="C6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
         <v>120</v>
-      </c>
-      <c r="C7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
